--- a/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>2.01761131874582</v>
+        <v>3.123817341270001</v>
       </c>
       <c r="R2">
-        <v>2.01761131874582</v>
+        <v>28.11435607143001</v>
       </c>
       <c r="S2">
-        <v>0.0006100495807934889</v>
+        <v>0.0008350450188732052</v>
       </c>
       <c r="T2">
-        <v>0.0006100495807934889</v>
+        <v>0.0008350450188732047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H3">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I3">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J3">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>168.7629230475952</v>
+        <v>205.3068317173129</v>
       </c>
       <c r="R3">
-        <v>168.7629230475952</v>
+        <v>1847.761485455815</v>
       </c>
       <c r="S3">
-        <v>0.05102754405772614</v>
+        <v>0.05488171312106285</v>
       </c>
       <c r="T3">
-        <v>0.05102754405772614</v>
+        <v>0.05488171312106283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H4">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I4">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J4">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.6224333170130736</v>
+        <v>1.042114546003889</v>
       </c>
       <c r="R4">
-        <v>0.6224333170130736</v>
+        <v>9.379030914035001</v>
       </c>
       <c r="S4">
-        <v>0.0001882003637607284</v>
+        <v>0.0002785734457771051</v>
       </c>
       <c r="T4">
-        <v>0.0001882003637607284</v>
+        <v>0.000278573445777105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H5">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I5">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J5">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>1.545922593781608</v>
+        <v>1.959190072040001</v>
       </c>
       <c r="R5">
-        <v>1.545922593781608</v>
+        <v>17.63271064836</v>
       </c>
       <c r="S5">
-        <v>0.0004674286972487312</v>
+        <v>0.0005237220144304952</v>
       </c>
       <c r="T5">
-        <v>0.0004674286972487312</v>
+        <v>0.0005237220144304949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H6">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I6">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J6">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>9.164393620819261</v>
+        <v>11.35678442319445</v>
       </c>
       <c r="R6">
-        <v>9.164393620819261</v>
+        <v>102.21105980875</v>
       </c>
       <c r="S6">
-        <v>0.00277096705131621</v>
+        <v>0.003035845322233151</v>
       </c>
       <c r="T6">
-        <v>0.00277096705131621</v>
+        <v>0.003035845322233149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H7">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I7">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J7">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>59.20293917771355</v>
+        <v>88.47237103447057</v>
       </c>
       <c r="R7">
-        <v>59.20293917771355</v>
+        <v>796.2513393102352</v>
       </c>
       <c r="S7">
-        <v>0.01790073632693403</v>
+        <v>0.02365004245421121</v>
       </c>
       <c r="T7">
-        <v>0.01790073632693403</v>
+        <v>0.0236500424542112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>0.23533125575322</v>
+        <v>0.3154956623040001</v>
       </c>
       <c r="R8">
-        <v>0.23533125575322</v>
+        <v>2.839460960736</v>
       </c>
       <c r="S8">
-        <v>7.115529764627744E-05</v>
+        <v>8.433690337859194E-05</v>
       </c>
       <c r="T8">
-        <v>7.115529764627744E-05</v>
+        <v>8.433690337859192E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>19.68426239304715</v>
+        <v>20.73534005732089</v>
       </c>
       <c r="R9">
-        <v>19.68426239304715</v>
+        <v>186.618060515888</v>
       </c>
       <c r="S9">
-        <v>0.005951778674879784</v>
+        <v>0.005542879284506562</v>
       </c>
       <c r="T9">
-        <v>0.005951778674879784</v>
+        <v>0.005542879284506559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J10">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>0.07259971866453534</v>
+        <v>0.1052502700924444</v>
       </c>
       <c r="R10">
-        <v>0.07259971866453534</v>
+        <v>0.9472524308319999</v>
       </c>
       <c r="S10">
-        <v>2.195141726532147E-05</v>
+        <v>2.813503613499491E-05</v>
       </c>
       <c r="T10">
-        <v>2.195141726532147E-05</v>
+        <v>2.813503613499491E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J11">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>0.180314167506776</v>
+        <v>0.197871995008</v>
       </c>
       <c r="R11">
-        <v>0.180314167506776</v>
+        <v>1.780847955072</v>
       </c>
       <c r="S11">
-        <v>5.452020479693469E-05</v>
+        <v>5.289426549465225E-05</v>
       </c>
       <c r="T11">
-        <v>5.452020479693469E-05</v>
+        <v>5.289426549465223E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J12">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>1.068921570258049</v>
+        <v>1.146999274222222</v>
       </c>
       <c r="R12">
-        <v>1.068921570258049</v>
+        <v>10.322993468</v>
       </c>
       <c r="S12">
-        <v>0.0003232015749408036</v>
+        <v>0.0003066107668769943</v>
       </c>
       <c r="T12">
-        <v>0.0003232015749408036</v>
+        <v>0.0003066107668769941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J13">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>6.90534489548432</v>
+        <v>8.935429394785778</v>
       </c>
       <c r="R13">
-        <v>6.90534489548432</v>
+        <v>80.41886455307201</v>
       </c>
       <c r="S13">
-        <v>0.002087915903120176</v>
+        <v>0.002388579418211305</v>
       </c>
       <c r="T13">
-        <v>0.002087915903120176</v>
+        <v>0.002388579418211304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H14">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I14">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J14">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>3.306667468640968</v>
+        <v>4.340604425514</v>
       </c>
       <c r="R14">
-        <v>3.306667468640968</v>
+        <v>39.06543982962599</v>
       </c>
       <c r="S14">
-        <v>0.000999811551573686</v>
+        <v>0.001160311154092915</v>
       </c>
       <c r="T14">
-        <v>0.000999811551573686</v>
+        <v>0.001160311154092914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H15">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I15">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J15">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>276.5859124447867</v>
+        <v>285.2778011591815</v>
       </c>
       <c r="R15">
-        <v>276.5859124447867</v>
+        <v>2567.500210432633</v>
       </c>
       <c r="S15">
-        <v>0.08362915016020664</v>
+        <v>0.07625919854719351</v>
       </c>
       <c r="T15">
-        <v>0.08362915016020664</v>
+        <v>0.07625919854719349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H16">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>1.020107283123698</v>
+        <v>1.448038254515222</v>
       </c>
       <c r="R16">
-        <v>1.020107283123698</v>
+        <v>13.032344290637</v>
       </c>
       <c r="S16">
-        <v>0.0003084419752466688</v>
+        <v>0.0003870831740370551</v>
       </c>
       <c r="T16">
-        <v>0.0003084419752466688</v>
+        <v>0.000387083174037055</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H17">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I17">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J17">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>2.533615817080328</v>
+        <v>2.722332379928</v>
       </c>
       <c r="R17">
-        <v>2.533615817080328</v>
+        <v>24.500991419352</v>
       </c>
       <c r="S17">
-        <v>0.0007660698831043417</v>
+        <v>0.0007277218368510327</v>
       </c>
       <c r="T17">
-        <v>0.0007660698831043417</v>
+        <v>0.0007277218368510324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H18">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I18">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J18">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>15.0195441382739</v>
+        <v>15.78047092436111</v>
       </c>
       <c r="R18">
-        <v>15.0195441382739</v>
+        <v>142.02423831925</v>
       </c>
       <c r="S18">
-        <v>0.004541343776242769</v>
+        <v>0.004218365608887958</v>
       </c>
       <c r="T18">
-        <v>0.004541343776242769</v>
+        <v>0.004218365608887956</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H19">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I19">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J19">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>97.02782255829413</v>
+        <v>122.9340653739419</v>
       </c>
       <c r="R19">
-        <v>97.02782255829413</v>
+        <v>1106.406588365477</v>
       </c>
       <c r="S19">
-        <v>0.02933755472475587</v>
+        <v>0.03286218998278822</v>
       </c>
       <c r="T19">
-        <v>0.02933755472475587</v>
+        <v>0.0328621899827882</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H20">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I20">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J20">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>2.757763320191822</v>
+        <v>4.522935789858001</v>
       </c>
       <c r="R20">
-        <v>2.757763320191822</v>
+        <v>40.70642210872201</v>
       </c>
       <c r="S20">
-        <v>0.0008338436356792797</v>
+        <v>0.001209051167015026</v>
       </c>
       <c r="T20">
-        <v>0.0008338436356792797</v>
+        <v>0.001209051167015025</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H21">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I21">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J21">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>230.672872750495</v>
+        <v>297.2611761925447</v>
       </c>
       <c r="R21">
-        <v>230.672872750495</v>
+        <v>2675.350585732901</v>
       </c>
       <c r="S21">
-        <v>0.06974677828896415</v>
+        <v>0.07946254129668706</v>
       </c>
       <c r="T21">
-        <v>0.06974677828896415</v>
+        <v>0.07946254129668703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H22">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I22">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J22">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>0.8507702920654715</v>
+        <v>1.508864527698778</v>
       </c>
       <c r="R22">
-        <v>0.8507702920654715</v>
+        <v>13.579780749289</v>
       </c>
       <c r="S22">
-        <v>0.000257240854670027</v>
+        <v>0.0004033429840353885</v>
       </c>
       <c r="T22">
-        <v>0.000257240854670027</v>
+        <v>0.0004033429840353884</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H23">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>2.113037622943576</v>
+        <v>2.836686633016001</v>
       </c>
       <c r="R23">
-        <v>2.113037622943576</v>
+        <v>25.530179697144</v>
       </c>
       <c r="S23">
-        <v>0.0006389028967575865</v>
+        <v>0.0007582905094064128</v>
       </c>
       <c r="T23">
-        <v>0.0006389028967575865</v>
+        <v>0.0007582905094064126</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H24">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I24">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J24">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>12.52631185426018</v>
+        <v>16.44334514913889</v>
       </c>
       <c r="R24">
-        <v>12.52631185426018</v>
+        <v>147.99010634225</v>
       </c>
       <c r="S24">
-        <v>0.003787484350717322</v>
+        <v>0.004395562211335617</v>
       </c>
       <c r="T24">
-        <v>0.003787484350717322</v>
+        <v>0.004395562211335615</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H25">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I25">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J25">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N25">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O25">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P25">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q25">
-        <v>80.92128181226484</v>
+        <v>128.0980318787521</v>
       </c>
       <c r="R25">
-        <v>80.92128181226484</v>
+        <v>1152.882286908769</v>
       </c>
       <c r="S25">
-        <v>0.02446754416382371</v>
+        <v>0.03424259864193112</v>
       </c>
       <c r="T25">
-        <v>0.02446754416382371</v>
+        <v>0.03424259864193111</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H26">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I26">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J26">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N26">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q26">
-        <v>17.23378569812365</v>
+        <v>22.530674265618</v>
       </c>
       <c r="R26">
-        <v>17.23378569812365</v>
+        <v>202.776068390562</v>
       </c>
       <c r="S26">
-        <v>0.005210846927227042</v>
+        <v>0.006022800075022971</v>
       </c>
       <c r="T26">
-        <v>0.005210846927227042</v>
+        <v>0.00602280007502297</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H27">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I27">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J27">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q27">
-        <v>1441.518503870761</v>
+        <v>1480.784836173625</v>
       </c>
       <c r="R27">
-        <v>1441.518503870761</v>
+        <v>13327.06352556262</v>
       </c>
       <c r="S27">
-        <v>0.4358608374278268</v>
+        <v>0.3958368452385398</v>
       </c>
       <c r="T27">
-        <v>0.4358608374278268</v>
+        <v>0.3958368452385398</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H28">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I28">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J28">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N28">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q28">
-        <v>5.316624811286039</v>
+        <v>7.516298431818777</v>
       </c>
       <c r="R28">
-        <v>5.316624811286039</v>
+        <v>67.646685886369</v>
       </c>
       <c r="S28">
-        <v>0.001607546858617676</v>
+        <v>0.00200922361334451</v>
       </c>
       <c r="T28">
-        <v>0.001607546858617676</v>
+        <v>0.00200922361334451</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H29">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I29">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J29">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N29">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q29">
-        <v>13.20477261382577</v>
+        <v>14.130747260536</v>
       </c>
       <c r="R29">
-        <v>13.20477261382577</v>
+        <v>127.176725344824</v>
       </c>
       <c r="S29">
-        <v>0.003992625300370155</v>
+        <v>0.003777368784331517</v>
       </c>
       <c r="T29">
-        <v>0.003992625300370155</v>
+        <v>0.003777368784331517</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H30">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N30">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q30">
-        <v>78.27929703161408</v>
+        <v>81.91132277913887</v>
       </c>
       <c r="R30">
-        <v>78.27929703161408</v>
+        <v>737.20190501225</v>
       </c>
       <c r="S30">
-        <v>0.023668707592615</v>
+        <v>0.02189617208803479</v>
       </c>
       <c r="T30">
-        <v>0.023668707592615</v>
+        <v>0.02189617208803478</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H31">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I31">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J31">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N31">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O31">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P31">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q31">
-        <v>505.6924279756686</v>
+        <v>638.1109890612721</v>
       </c>
       <c r="R31">
-        <v>505.6924279756686</v>
+        <v>5742.998901551449</v>
       </c>
       <c r="S31">
-        <v>0.1529023210916388</v>
+        <v>0.1705770039317461</v>
       </c>
       <c r="T31">
-        <v>0.1529023210916388</v>
+        <v>0.170577003931746</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H32">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I32">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J32">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N32">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q32">
-        <v>2.100637866222921</v>
+        <v>2.710124245584</v>
       </c>
       <c r="R32">
-        <v>2.100637866222921</v>
+        <v>24.391118210256</v>
       </c>
       <c r="S32">
-        <v>0.0006351536779070108</v>
+        <v>0.0007244584124378923</v>
       </c>
       <c r="T32">
-        <v>0.0006351536779070108</v>
+        <v>0.000724458412437892</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H33">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I33">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J33">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q33">
-        <v>175.7076713807357</v>
+        <v>178.1176559430054</v>
       </c>
       <c r="R33">
-        <v>175.7076713807357</v>
+        <v>1603.058903487048</v>
       </c>
       <c r="S33">
-        <v>0.05312737407453146</v>
+        <v>0.04761362305137491</v>
       </c>
       <c r="T33">
-        <v>0.05312737407453146</v>
+        <v>0.04761362305137489</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H34">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I34">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J34">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N34">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q34">
-        <v>0.6480470161761213</v>
+        <v>0.9041053266746667</v>
       </c>
       <c r="R34">
-        <v>0.6480470161761213</v>
+        <v>8.136947940072</v>
       </c>
       <c r="S34">
-        <v>0.0001959449805220484</v>
+        <v>0.0002416814323943399</v>
       </c>
       <c r="T34">
-        <v>0.0001959449805220484</v>
+        <v>0.0002416814323943398</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H35">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I35">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J35">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N35">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q35">
-        <v>1.609538719660758</v>
+        <v>1.699730789568</v>
       </c>
       <c r="R35">
-        <v>1.609538719660758</v>
+        <v>15.297577106112</v>
       </c>
       <c r="S35">
-        <v>0.0004866638148175627</v>
+        <v>0.000454364507969962</v>
       </c>
       <c r="T35">
-        <v>0.0004866638148175627</v>
+        <v>0.0004543645079699618</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H36">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I36">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J36">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N36">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q36">
-        <v>9.541516783733897</v>
+        <v>9.852783775333332</v>
       </c>
       <c r="R36">
-        <v>9.541516783733897</v>
+        <v>88.67505397799999</v>
       </c>
       <c r="S36">
-        <v>0.0028849948748648</v>
+        <v>0.002633802529017878</v>
       </c>
       <c r="T36">
-        <v>0.0028849948748648</v>
+        <v>0.002633802529017877</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H37">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I37">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J37">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N37">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O37">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P37">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q37">
-        <v>61.63919416634926</v>
+        <v>76.75580599323466</v>
       </c>
       <c r="R37">
-        <v>61.63919416634926</v>
+        <v>690.802253939112</v>
       </c>
       <c r="S37">
-        <v>0.01863736796689089</v>
+        <v>0.02051802217033305</v>
       </c>
       <c r="T37">
-        <v>0.01863736796689089</v>
+        <v>0.02051802217033304</v>
       </c>
     </row>
   </sheetData>
